--- a/data/processed/unmatched_columns/unmatched_湖南高速铁路职业技术学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_湖南高速铁路职业技术学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,12 +447,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -468,10 +462,7 @@
       <c r="B2" t="n">
         <v>500101</v>
       </c>
-      <c r="C2" t="n">
-        <v>5060</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -488,10 +479,7 @@
       <c r="B3" t="n">
         <v>500601</v>
       </c>
-      <c r="C3" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -508,10 +496,7 @@
       <c r="B4" t="n">
         <v>500201</v>
       </c>
-      <c r="C4" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -528,10 +513,7 @@
       <c r="B5" t="n">
         <v>500103</v>
       </c>
-      <c r="C5" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -548,10 +530,7 @@
       <c r="B6" t="n">
         <v>500102</v>
       </c>
-      <c r="C6" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -568,10 +547,7 @@
       <c r="B7" t="n">
         <v>500109</v>
       </c>
-      <c r="C7" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -588,10 +564,7 @@
       <c r="B8" t="n">
         <v>500112</v>
       </c>
-      <c r="C8" t="n">
-        <v>5060</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -608,10 +581,7 @@
       <c r="B9" t="n">
         <v>500113</v>
       </c>
-      <c r="C9" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -628,10 +598,7 @@
       <c r="B10" t="n">
         <v>500310</v>
       </c>
-      <c r="C10" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -648,10 +615,7 @@
       <c r="B11" t="n">
         <v>500606</v>
       </c>
-      <c r="C11" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -668,10 +632,7 @@
       <c r="B12" t="n">
         <v>440301</v>
       </c>
-      <c r="C12" t="n">
-        <v>5060</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -688,10 +649,7 @@
       <c r="B13" t="n">
         <v>440102</v>
       </c>
-      <c r="C13" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -708,10 +666,7 @@
       <c r="B14" t="n">
         <v>440602</v>
       </c>
-      <c r="C14" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -728,10 +683,7 @@
       <c r="B15" t="n">
         <v>440501</v>
       </c>
-      <c r="C15" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -748,10 +700,7 @@
       <c r="B16" t="n">
         <v>440305</v>
       </c>
-      <c r="C16" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -768,10 +717,7 @@
       <c r="B17" t="n">
         <v>440304</v>
       </c>
-      <c r="C17" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -788,10 +734,7 @@
       <c r="B18" t="n">
         <v>500110</v>
       </c>
-      <c r="C18" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -808,10 +751,7 @@
       <c r="B19" t="n">
         <v>500604</v>
       </c>
-      <c r="C19" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -828,10 +768,7 @@
       <c r="B20" t="n">
         <v>500111</v>
       </c>
-      <c r="C20" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -848,10 +785,7 @@
       <c r="B21" t="n">
         <v>510102</v>
       </c>
-      <c r="C21" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -868,10 +802,7 @@
       <c r="B22" t="n">
         <v>510209</v>
       </c>
-      <c r="C22" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -888,10 +819,7 @@
       <c r="B23" t="n">
         <v>510203</v>
       </c>
-      <c r="C23" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -908,10 +836,7 @@
       <c r="B24" t="n">
         <v>500105</v>
       </c>
-      <c r="C24" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -928,10 +853,7 @@
       <c r="B25" t="n">
         <v>500106</v>
       </c>
-      <c r="C25" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -948,10 +870,7 @@
       <c r="B26" t="n">
         <v>500107</v>
       </c>
-      <c r="C26" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -968,10 +887,7 @@
       <c r="B27" t="n">
         <v>500108</v>
       </c>
-      <c r="C27" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -988,10 +904,7 @@
       <c r="B28" t="n">
         <v>500602</v>
       </c>
-      <c r="C28" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -1006,10 +919,7 @@
       <c r="B29" t="n">
         <v>530503</v>
       </c>
-      <c r="C29" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -1024,10 +934,7 @@
       <c r="B30" t="n">
         <v>530702</v>
       </c>
-      <c r="C30" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -1042,10 +949,7 @@
       <c r="B31" t="n">
         <v>530804</v>
       </c>
-      <c r="C31" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -1060,10 +964,7 @@
       <c r="B32" t="n">
         <v>460301</v>
       </c>
-      <c r="C32" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -1078,10 +979,7 @@
       <c r="B33" t="n">
         <v>500104</v>
       </c>
-      <c r="C33" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
@@ -1096,10 +994,7 @@
       <c r="B34" t="n">
         <v>460104</v>
       </c>
-      <c r="C34" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>湖南高速铁路职业技术学院.xlsx</t>
         </is>
